--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121231a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121231a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.4607750688991475</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.7207073382494567</v>
+      </c>
+      <c r="C5">
+        <v>0.7572263879256377</v>
+      </c>
+      <c r="D5">
+        <v>0.7713484272591365</v>
+      </c>
+      <c r="E5">
+        <v>1.6377719633068</v>
+      </c>
+      <c r="F5">
+        <v>0.8408167118111879</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7207073382494567</v>
+        <v>2.884073891428518</v>
       </c>
       <c r="C6">
-        <v>0.7572263879256377</v>
+        <v>2.943266451380885</v>
       </c>
       <c r="D6">
-        <v>0.7713484272591365</v>
+        <v>2.977392970584916</v>
       </c>
       <c r="E6">
-        <v>1.6377719633068</v>
+        <v>6.381073477954479</v>
       </c>
       <c r="F6">
-        <v>0.8408167118111879</v>
+        <v>3.358823592357487</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.884073891428518</v>
+        <v>2.711085080780453</v>
       </c>
       <c r="C7">
-        <v>2.943266451380885</v>
+        <v>2.972401610733863</v>
       </c>
       <c r="D7">
-        <v>2.977392970584916</v>
+        <v>3.11170840709153</v>
       </c>
       <c r="E7">
-        <v>6.381073477954479</v>
+        <v>4.189287417073341</v>
       </c>
       <c r="F7">
-        <v>3.358823592357487</v>
+        <v>3.126244722526165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2.59520846765749</v>
+      </c>
+      <c r="C8">
+        <v>4.077173303405078</v>
+      </c>
+      <c r="D8">
+        <v>4.281852546715005</v>
+      </c>
+      <c r="E8">
+        <v>10.33912772194495</v>
+      </c>
+      <c r="F8">
+        <v>5.588665974125995</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>2.711085080780453</v>
+        <v>4.684465570471601</v>
       </c>
       <c r="C9">
-        <v>2.972401610733863</v>
+        <v>6.10869824373126</v>
       </c>
       <c r="D9">
-        <v>3.11170840709153</v>
+        <v>6.594909013287879</v>
       </c>
       <c r="E9">
-        <v>4.189287417073341</v>
+        <v>15.07169062236967</v>
       </c>
       <c r="F9">
-        <v>3.126244722526165</v>
+        <v>3.97741598483685</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>2.59520846765749</v>
+        <v>3.265352418741859</v>
       </c>
       <c r="C10">
-        <v>4.077173303405078</v>
+        <v>2.768065426468194</v>
       </c>
       <c r="D10">
-        <v>4.281852546715005</v>
+        <v>2.614347892278222</v>
       </c>
       <c r="E10">
-        <v>10.33912772194495</v>
+        <v>9.899162318102428</v>
       </c>
       <c r="F10">
-        <v>5.588665974125995</v>
+        <v>5.769240299949268</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>4.684465570471601</v>
+        <v>3.448499742301367</v>
       </c>
       <c r="C11">
-        <v>6.10869824373126</v>
+        <v>4.086482102378906</v>
       </c>
       <c r="D11">
-        <v>6.594909013287879</v>
+        <v>4.103197835457468</v>
       </c>
       <c r="E11">
-        <v>15.07169062236967</v>
+        <v>10.7922184840574</v>
       </c>
       <c r="F11">
-        <v>3.97741598483685</v>
+        <v>4.941690299777195</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>3.265352418741859</v>
+        <v>6.411791817316934</v>
       </c>
       <c r="C12">
-        <v>2.768065426468194</v>
+        <v>7.284734403993215</v>
       </c>
       <c r="D12">
-        <v>2.614347892278222</v>
+        <v>7.658147893914698</v>
       </c>
       <c r="E12">
-        <v>9.899162318102428</v>
+        <v>7.117564806615837</v>
       </c>
       <c r="F12">
-        <v>5.769240299949268</v>
+        <v>6.272329548544344</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>3.448499742301367</v>
+        <v>7.421827986610236</v>
       </c>
       <c r="C13">
-        <v>4.086482102378906</v>
+        <v>5.681860516103098</v>
       </c>
       <c r="D13">
-        <v>4.103197835457468</v>
+        <v>5.66805702933788</v>
       </c>
       <c r="E13">
-        <v>10.7922184840574</v>
+        <v>12.32132640195132</v>
       </c>
       <c r="F13">
-        <v>4.941690299777195</v>
+        <v>13.25326280099855</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>6.411791817316934</v>
+        <v>3.467449083585328</v>
       </c>
       <c r="C14">
-        <v>7.284734403993215</v>
+        <v>4.137026342266318</v>
       </c>
       <c r="D14">
-        <v>7.658147893914698</v>
+        <v>4.305033188055218</v>
       </c>
       <c r="E14">
-        <v>7.117564806615837</v>
+        <v>9.005806320580785</v>
       </c>
       <c r="F14">
-        <v>6.272329548544344</v>
+        <v>3.189293893333989</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>7.421827986610236</v>
+        <v>1.001344105085838</v>
       </c>
       <c r="C15">
-        <v>5.681860516103098</v>
+        <v>1.180801927966028</v>
       </c>
       <c r="D15">
-        <v>5.66805702933788</v>
+        <v>1.297664078540833</v>
       </c>
       <c r="E15">
-        <v>12.32132640195132</v>
+        <v>3.055833436782061</v>
       </c>
       <c r="F15">
-        <v>13.25326280099855</v>
+        <v>1.401341533362334</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>3.467449083585328</v>
+        <v>3.517185547359229</v>
       </c>
       <c r="C16">
-        <v>4.137026342266318</v>
+        <v>3.598358785790805</v>
       </c>
       <c r="D16">
-        <v>4.305033188055218</v>
+        <v>4.188742761591177</v>
       </c>
       <c r="E16">
-        <v>9.005806320580785</v>
+        <v>17.35930932184985</v>
       </c>
       <c r="F16">
-        <v>3.189293893333989</v>
+        <v>5.959528493289178</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>1.001344105085838</v>
+        <v>2.713512409758725</v>
       </c>
       <c r="C17">
-        <v>1.180801927966028</v>
+        <v>3.970345847650333</v>
       </c>
       <c r="D17">
-        <v>1.297664078540833</v>
+        <v>4.04517618740793</v>
       </c>
       <c r="E17">
-        <v>3.055833436782061</v>
+        <v>13.29905055154125</v>
       </c>
       <c r="F17">
-        <v>1.401341533362334</v>
+        <v>3.494591953473016</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>3.517185547359229</v>
+        <v>1.78134525714831</v>
       </c>
       <c r="C18">
-        <v>3.598358785790805</v>
+        <v>2.187121212761871</v>
       </c>
       <c r="D18">
-        <v>4.188742761591177</v>
+        <v>2.395828784741949</v>
       </c>
       <c r="E18">
-        <v>17.35930932184985</v>
+        <v>6.58739995032249</v>
       </c>
       <c r="F18">
-        <v>5.959528493289178</v>
+        <v>2.439741119945762</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>2.713512409758725</v>
+        <v>6.868700281290047</v>
       </c>
       <c r="C19">
-        <v>3.970345847650333</v>
+        <v>8.71848645634215</v>
       </c>
       <c r="D19">
-        <v>4.04517618740793</v>
+        <v>9.294975349466068</v>
       </c>
       <c r="E19">
-        <v>13.29905055154125</v>
+        <v>14.33858220102616</v>
       </c>
       <c r="F19">
-        <v>3.494591953473016</v>
+        <v>5.269582426857863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>1.78134525714831</v>
+        <v>4.736675736586682</v>
       </c>
       <c r="C20">
-        <v>2.187121212761871</v>
+        <v>5.304057139539188</v>
       </c>
       <c r="D20">
-        <v>2.395828784741949</v>
+        <v>5.169444680633499</v>
       </c>
       <c r="E20">
-        <v>6.58739995032249</v>
+        <v>15.40085388984687</v>
       </c>
       <c r="F20">
-        <v>2.439741119945762</v>
+        <v>5.169124652480209</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>6.868700281290047</v>
+        <v>1.895023571231588</v>
       </c>
       <c r="C21">
-        <v>8.71848645634215</v>
+        <v>3.149047980205724</v>
       </c>
       <c r="D21">
-        <v>9.294975349466068</v>
+        <v>3.725552164897549</v>
       </c>
       <c r="E21">
-        <v>14.33858220102616</v>
+        <v>5.256820371467183</v>
       </c>
       <c r="F21">
-        <v>5.269582426857863</v>
+        <v>1.958780250140822</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>4.736675736586682</v>
+        <v>4.937481660933277</v>
       </c>
       <c r="C22">
-        <v>5.304057139539188</v>
+        <v>5.050614059173689</v>
       </c>
       <c r="D22">
-        <v>5.169444680633499</v>
+        <v>5.553703529483185</v>
       </c>
       <c r="E22">
-        <v>15.40085388984687</v>
+        <v>9.208456829460696</v>
       </c>
       <c r="F22">
-        <v>5.169124652480209</v>
+        <v>6.147144576739471</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>1.895023571231588</v>
+        <v>4.904644395875956</v>
       </c>
       <c r="C23">
-        <v>3.149047980205724</v>
+        <v>5.274898035596201</v>
       </c>
       <c r="D23">
-        <v>3.725552164897549</v>
+        <v>5.169518997120371</v>
       </c>
       <c r="E23">
-        <v>5.256820371467183</v>
+        <v>11.85833344379494</v>
       </c>
       <c r="F23">
-        <v>1.958780250140822</v>
+        <v>6.112071652189763</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>4.937481660933277</v>
+        <v>1.880643671345009</v>
       </c>
       <c r="C24">
-        <v>5.050614059173689</v>
+        <v>2.042950525485297</v>
       </c>
       <c r="D24">
-        <v>5.553703529483185</v>
+        <v>2.267628199801304</v>
       </c>
       <c r="E24">
-        <v>9.208456829460696</v>
+        <v>5.250642530903056</v>
       </c>
       <c r="F24">
-        <v>6.147144576739471</v>
+        <v>3.079083800039953</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>4.904644395875956</v>
+        <v>0.6607647337345793</v>
       </c>
       <c r="C25">
-        <v>5.274898035596201</v>
+        <v>0.7414013893067538</v>
       </c>
       <c r="D25">
-        <v>5.169518997120371</v>
+        <v>0.8019216803844061</v>
       </c>
       <c r="E25">
-        <v>11.85833344379494</v>
+        <v>2.411965724301194</v>
       </c>
       <c r="F25">
-        <v>6.112071652189763</v>
+        <v>0.8839879609400236</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>1.880643671345009</v>
+        <v>1.352281308570225</v>
       </c>
       <c r="C26">
-        <v>2.042950525485297</v>
+        <v>1.475148850646028</v>
       </c>
       <c r="D26">
-        <v>2.267628199801304</v>
+        <v>1.560761198572171</v>
       </c>
       <c r="E26">
-        <v>5.250642530903056</v>
+        <v>4.919910845488509</v>
       </c>
       <c r="F26">
-        <v>3.079083800039953</v>
+        <v>1.698718501671789</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6607647337345793</v>
+        <v>2.681965583719568</v>
       </c>
       <c r="C27">
-        <v>0.7414013893067538</v>
+        <v>3.323386491086192</v>
       </c>
       <c r="D27">
-        <v>0.8019216803844061</v>
+        <v>3.858655139440815</v>
       </c>
       <c r="E27">
-        <v>2.411965724301194</v>
+        <v>10.30817362497661</v>
       </c>
       <c r="F27">
-        <v>0.8839879609400236</v>
+        <v>3.666257256482477</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>1.352281308570225</v>
+        <v>1.798624869155863</v>
       </c>
       <c r="C28">
-        <v>1.475148850646028</v>
+        <v>1.964388991146744</v>
       </c>
       <c r="D28">
-        <v>1.560761198572171</v>
+        <v>1.994176858327904</v>
       </c>
       <c r="E28">
-        <v>4.919910845488509</v>
+        <v>4.395778953270304</v>
       </c>
       <c r="F28">
-        <v>1.698718501671789</v>
+        <v>2.087056863167732</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>2.681965583719568</v>
+        <v>0.8433544260577156</v>
       </c>
       <c r="C29">
-        <v>3.323386491086192</v>
+        <v>0.9819632545567769</v>
       </c>
       <c r="D29">
-        <v>3.858655139440815</v>
+        <v>1.098109583827185</v>
       </c>
       <c r="E29">
-        <v>10.30817362497661</v>
+        <v>3.504273485022941</v>
       </c>
       <c r="F29">
-        <v>3.666257256482477</v>
+        <v>1.237507992872292</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>1.798624869155863</v>
+        <v>0.8140822202532793</v>
       </c>
       <c r="C30">
-        <v>1.964388991146744</v>
+        <v>1.034337676167368</v>
       </c>
       <c r="D30">
-        <v>1.994176858327904</v>
+        <v>1.180678710372304</v>
       </c>
       <c r="E30">
-        <v>4.395778953270304</v>
+        <v>3.884694757668901</v>
       </c>
       <c r="F30">
-        <v>2.087056863167732</v>
+        <v>1.405145127845405</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.8433544260577156</v>
+        <v>1.357563182295521</v>
       </c>
       <c r="C31">
-        <v>0.9819632545567769</v>
+        <v>1.626312315842651</v>
       </c>
       <c r="D31">
-        <v>1.098109583827185</v>
+        <v>1.744115635677976</v>
       </c>
       <c r="E31">
-        <v>3.504273485022941</v>
+        <v>5.815592586034283</v>
       </c>
       <c r="F31">
-        <v>1.237507992872292</v>
+        <v>2.255051183536173</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>0.8140822202532793</v>
+        <v>1.853733926181436</v>
       </c>
       <c r="C32">
-        <v>1.034337676167368</v>
+        <v>2.723849939764913</v>
       </c>
       <c r="D32">
-        <v>1.180678710372304</v>
+        <v>3.271650472458722</v>
       </c>
       <c r="E32">
-        <v>3.884694757668901</v>
+        <v>10.46067910643294</v>
       </c>
       <c r="F32">
-        <v>1.405145127845405</v>
+        <v>2.959399920366925</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>1.357563182295521</v>
+        <v>1.186675582695527</v>
       </c>
       <c r="C33">
-        <v>1.626312315842651</v>
+        <v>1.323187759032748</v>
       </c>
       <c r="D33">
-        <v>1.744115635677976</v>
+        <v>1.464705434130517</v>
       </c>
       <c r="E33">
-        <v>5.815592586034283</v>
+        <v>5.430986928191398</v>
       </c>
       <c r="F33">
-        <v>2.255051183536173</v>
+        <v>2.257435000788957</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>1.853733926181436</v>
+        <v>1.162810615007196</v>
       </c>
       <c r="C34">
-        <v>2.723849939764913</v>
+        <v>1.509562286416045</v>
       </c>
       <c r="D34">
-        <v>3.271650472458722</v>
+        <v>1.547182158776158</v>
       </c>
       <c r="E34">
-        <v>10.46067910643294</v>
+        <v>3.934675816866512</v>
       </c>
       <c r="F34">
-        <v>2.959399920366925</v>
+        <v>1.875972859095551</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>1.186675582695527</v>
+        <v>2.059191592713627</v>
       </c>
       <c r="C35">
-        <v>1.323187759032748</v>
+        <v>2.469613968016455</v>
       </c>
       <c r="D35">
-        <v>1.464705434130517</v>
+        <v>2.584416549027641</v>
       </c>
       <c r="E35">
-        <v>5.430986928191398</v>
+        <v>7.547498505723405</v>
       </c>
       <c r="F35">
-        <v>2.257435000788957</v>
+        <v>3.720381116857822</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1.162810615007196</v>
+        <v>2.695345486984724</v>
       </c>
       <c r="C36">
-        <v>1.509562286416045</v>
+        <v>4.023012567957636</v>
       </c>
       <c r="D36">
-        <v>1.547182158776158</v>
+        <v>3.952777635647612</v>
       </c>
       <c r="E36">
-        <v>3.934675816866512</v>
+        <v>11.16374290469038</v>
       </c>
       <c r="F36">
-        <v>1.875972859095551</v>
+        <v>4.593720767855577</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>2.059191592713627</v>
+        <v>1.800627264486935</v>
       </c>
       <c r="C37">
-        <v>2.469613968016455</v>
+        <v>2.339984031110436</v>
       </c>
       <c r="D37">
-        <v>2.584416549027641</v>
+        <v>2.453640359073625</v>
       </c>
       <c r="E37">
-        <v>7.547498505723405</v>
+        <v>6.425007668002546</v>
       </c>
       <c r="F37">
-        <v>3.720381116857822</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>2.695345486984724</v>
-      </c>
-      <c r="C38">
-        <v>4.023012567957636</v>
-      </c>
-      <c r="D38">
-        <v>3.952777635647612</v>
-      </c>
-      <c r="E38">
-        <v>11.16374290469038</v>
-      </c>
-      <c r="F38">
-        <v>4.593720767855577</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>1.800627264486935</v>
-      </c>
-      <c r="C39">
-        <v>2.339984031110436</v>
-      </c>
-      <c r="D39">
-        <v>2.453640359073625</v>
-      </c>
-      <c r="E39">
-        <v>6.425007668002546</v>
-      </c>
-      <c r="F39">
         <v>2.928245069263534</v>
       </c>
     </row>
